--- a/1/prob.xlsx
+++ b/1/prob.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srini\OneDrive\Desktop\New folder\1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301DBC23-6953-4132-8348-EBC608670474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +26,467 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+  <si>
+    <t>Hospital Management System</t>
+  </si>
+  <si>
+    <r>
+      <t>[Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>Strictly adhere to the object-oriented specifications given as a part of the problem statement. Follow the naming conventions as mentioned. Create separate classes in separate files.]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Create class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t> with the following private attributes/variables.</t>
+    </r>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>mobileNumber</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Include parameterized constructor with parameters in the following order,</t>
+  </si>
+  <si>
+    <t>public User(String name, String email, String mobileNumber, String address)</t>
+  </si>
+  <si>
+    <r>
+      <t>In the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>User </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>class include the following method</t>
+    </r>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>public void display()</t>
+  </si>
+  <si>
+    <t>In this method, displays user details in the following order name, email, mobileNumber and address.</t>
+  </si>
+  <si>
+    <r>
+      <t>Create class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>Doctor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>which inherits </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t> class with the following private attributes/variables.</t>
+    </r>
+  </si>
+  <si>
+    <t>qualification</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>Include parameterized constructor with parameters in the following order, </t>
+  </si>
+  <si>
+    <t>Doctor(String name, String email, String mobileNumber, String address, String qualification, int experience)</t>
+  </si>
+  <si>
+    <r>
+      <t>In the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>Doctor  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>class include the following method</t>
+    </r>
+  </si>
+  <si>
+    <t>Calls the parent class display() and display the doctor details.</t>
+  </si>
+  <si>
+    <r>
+      <t>Create class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>Patient </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>which inherits </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t> class with the following private attributes/variables.</t>
+    </r>
+  </si>
+  <si>
+    <t>bloodGroup</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>Patient(String name, String email, String mobileNumber, String address, String bloodGroup, double height, double weight)</t>
+  </si>
+  <si>
+    <r>
+      <t>In the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>Patient  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>class include the following method</t>
+    </r>
+  </si>
+  <si>
+    <t> public void display()</t>
+  </si>
+  <si>
+    <t>Calls the parent class display() and display the patient details.</t>
+  </si>
+  <si>
+    <r>
+      <t>Create</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>a driver class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t> Main </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>class with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t> method, get user details</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>in comma separated format and display the user details using the display() method.</t>
+    </r>
+  </si>
+  <si>
+    <t>Input and Output Format</t>
+  </si>
+  <si>
+    <t>Refer sample input and output for formatting specifications.</t>
+  </si>
+  <si>
+    <t>All text in bold corresponds to the input and the rest corresponds to output.</t>
+  </si>
+  <si>
+    <t>Sample Input and Output 1:</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>1.Doctor</t>
+  </si>
+  <si>
+    <t>2.Patient</t>
+  </si>
+  <si>
+    <t>Enter the doctor details(name,email,mobile number,address,qualification,experience)</t>
+  </si>
+  <si>
+    <t>Albert,albert@gmail.com,7485961253,Canada,MBBS,5</t>
+  </si>
+  <si>
+    <t>Doctor details</t>
+  </si>
+  <si>
+    <t>Name: Albert</t>
+  </si>
+  <si>
+    <t>Email: albert@gmail.com</t>
+  </si>
+  <si>
+    <t>Mobile number: 7485961253</t>
+  </si>
+  <si>
+    <t>Address: Canada</t>
+  </si>
+  <si>
+    <t>Qualification: MBBS</t>
+  </si>
+  <si>
+    <t>Experience: 5</t>
+  </si>
+  <si>
+    <t>Sample Input and Output 2:</t>
+  </si>
+  <si>
+    <t>Enter the patient details(name,email,mobile number,address,bloodGroup,height,weight)</t>
+  </si>
+  <si>
+    <t>Jonas,jonas@gmail.com,9457961253,Canada,O+,165,55</t>
+  </si>
+  <si>
+    <t>Patient details</t>
+  </si>
+  <si>
+    <t>Name: Jonas</t>
+  </si>
+  <si>
+    <t>Email: jonas@gmail.com</t>
+  </si>
+  <si>
+    <t>Mobile number: 9457961253</t>
+  </si>
+  <si>
+    <t>BloodGroup: O+</t>
+  </si>
+  <si>
+    <t>Height: 165.0</t>
+  </si>
+  <si>
+    <t>Weight: 55.0</t>
+  </si>
+  <si>
+    <t>Sample Input and Output 3:</t>
+  </si>
+  <si>
+    <t>Invalid input</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Var(--page-font)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--page-font)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--page-font)"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Var(--page-font)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +497,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +505,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,12 +826,491 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="62.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="343.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" ht="105.6">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26.4">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26.4">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" ht="118.8">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="145.19999999999999">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" ht="92.4">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26.4">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="158.4">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" ht="145.19999999999999">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26.4">
+      <c r="A19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26.4">
+      <c r="A20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26.4">
+      <c r="A21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" ht="118.8">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="198">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" ht="92.4">
+      <c r="A26" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26.4">
+      <c r="A27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="118.8">
+      <c r="A28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" ht="145.19999999999999">
+      <c r="A30" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26.4">
+      <c r="A31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26.4">
+      <c r="A32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" ht="118.8">
+      <c r="A36" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="224.4">
+      <c r="A37" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" ht="92.4">
+      <c r="A39" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26.4">
+      <c r="A40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="118.8">
+      <c r="A41" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" ht="237.6">
+      <c r="A43" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:2" ht="52.8">
+      <c r="A45" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="105.6">
+      <c r="A46" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="132">
+      <c r="A47" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:1" ht="66">
+      <c r="A49" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="132">
+      <c r="A54" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="92.4">
+      <c r="A55" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="26.4">
+      <c r="A56" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="26.4">
+      <c r="A57" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="39.6">
+      <c r="A58" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="52.8">
+      <c r="A59" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="26.4">
+      <c r="A60" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="39.6">
+      <c r="A61" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="26.4">
+      <c r="A62" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="64" spans="1:1" ht="66">
+      <c r="A64" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="132">
+      <c r="A69" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="92.4">
+      <c r="A70" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="26.4">
+      <c r="A71" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="26.4">
+      <c r="A72" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="39.6">
+      <c r="A73" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="52.8">
+      <c r="A74" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="26.4">
+      <c r="A75" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="26.4">
+      <c r="A76" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="26.4">
+      <c r="A77" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="26.4">
+      <c r="A78" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="7"/>
+    </row>
+    <row r="80" spans="1:1" ht="66">
+      <c r="A80" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="26.4">
+      <c r="A85" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1926E4B3-D26C-42BC-A0FD-180CBAC29F07}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE54EBB-3F94-4FB8-AC30-BF62B47F06C0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1/prob.xlsx
+++ b/1/prob.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srini\OneDrive\Desktop\New folder\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301DBC23-6953-4132-8348-EBC608670474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E457A57-EAD4-4304-A683-66F69DDFE591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4248" yWindow="10332" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
   <si>
     <t>Hospital Management System</t>
   </si>
@@ -453,13 +453,423 @@
   </si>
   <si>
     <t>Invalid input</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Hovering Event</t>
+  </si>
+  <si>
+    <t>Objective :</t>
+  </si>
+  <si>
+    <t>To understand the concept of testing the below application, using the Selenium Actions class</t>
+  </si>
+  <si>
+    <t>Application Scenario:</t>
+  </si>
+  <si>
+    <t>The Managing head of "Pink Frag Event Organization" felt an old-fashioned appearance over the page prepared by his technical team for the detailed summary report of the year. Demanding some changes over the report details, he also mentioned bringing out a voguish layout for the report. The creative team sorted out the different styles to be included in the pages along with the indication of the hovered area with different colors, which would help him in presenting the reports.</t>
+  </si>
+  <si>
+    <t>Hence, the managing head has assigned you to finish the redesigning work of the summary report by using the javascript functions like onmouseover events, which would produce applied effects on hovering the specific regions. </t>
+  </si>
+  <si>
+    <t>An application has been developed for the above scenario and the corresponding screenshots and URL to locate the application are specified below. Test the application in accordance with the testing specifications provided.</t>
+  </si>
+  <si>
+    <t>Sample Screenshot 1:</t>
+  </si>
+  <si>
+    <t>Sample Screenshot 2 :</t>
+  </si>
+  <si>
+    <t>Sample Screenshot 3 :</t>
+  </si>
+  <si>
+    <t>Sample Screenshot 4 :</t>
+  </si>
+  <si>
+    <t>Sample Screenshot 5 :</t>
+  </si>
+  <si>
+    <t>Please refer to the below link for the flow of the application</t>
+  </si>
+  <si>
+    <t>https://app.e-box.co.in/uploads/base_projects/21077_index.html</t>
+  </si>
+  <si>
+    <t>Download the selenium jars in the below link.</t>
+  </si>
+  <si>
+    <t>SeleniumJars.zip</t>
+  </si>
+  <si>
+    <t>Procedure to complete the case study</t>
+  </si>
+  <si>
+    <t>1) Use the template code.</t>
+  </si>
+  <si>
+    <t>2) A class by name WebTest.java already exists with the following method.</t>
+  </si>
+  <si>
+    <t>Method Name</t>
+  </si>
+  <si>
+    <t>Method Description</t>
+  </si>
+  <si>
+    <t>setUp() </t>
+  </si>
+  <si>
+    <t>This method is used to configure the firefox driver and URL details of the application [Refer to template code]</t>
+  </si>
+  <si>
+    <t>testWeb()</t>
+  </si>
+  <si>
+    <t>This is the main part of our automation script.</t>
+  </si>
+  <si>
+    <t>This method is used to test the given below scenarios.</t>
+  </si>
+  <si>
+    <t>tearDown()</t>
+  </si>
+  <si>
+    <t>This method is used to quit the driver.</t>
+  </si>
+  <si>
+    <t>Test Scenario :</t>
+  </si>
+  <si>
+    <t>Step Number</t>
+  </si>
+  <si>
+    <t>Actions to be performed</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Launch the application using new FIrefoxDriver() method</t>
+  </si>
+  <si>
+    <t>Application is launched</t>
+  </si>
+  <si>
+    <t>Test the background color of the td with id ‘row1’.</t>
+  </si>
+  <si>
+    <t>The color code "#000000" should be present.</t>
+  </si>
+  <si>
+    <r>
+      <t>Create a static variable named as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>row1Before</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>(String) and store the value into the variable.</t>
+    </r>
+  </si>
+  <si>
+    <t>Test the background color the td with id ‘row2’.</t>
+  </si>
+  <si>
+    <r>
+      <t>Create a static variable named as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>row2Before</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>(String) and store the value into the variable.</t>
+    </r>
+  </si>
+  <si>
+    <t>Test the background color the td with id ‘row3’.</t>
+  </si>
+  <si>
+    <r>
+      <t>Create a static variable named as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>row3Before</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>(String) and store the value into the variable.</t>
+    </r>
+  </si>
+  <si>
+    <t>Test the background color the td with id ‘row4’.</t>
+  </si>
+  <si>
+    <r>
+      <t>Create a static variable named as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>row4Before</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>(String) and store the value into the variable.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hover over the element with id ‘row1’ using Action class.</t>
+  </si>
+  <si>
+    <t>Test the background color the td with id ‘row1’ after hovering.</t>
+  </si>
+  <si>
+    <t>The color code "#c8daf7" should be present.</t>
+  </si>
+  <si>
+    <r>
+      <t>Create a static variable named as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>row1After</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>(String) and store the value into the variable.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hover over the element with id ‘row2’ using Action class.</t>
+  </si>
+  <si>
+    <t>Test the background color the td with id ‘row2’ after hovering.</t>
+  </si>
+  <si>
+    <t>The color code "#9df9ec" should be present.</t>
+  </si>
+  <si>
+    <r>
+      <t>Create a static variable named as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>row2After</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>(String) and store the value into the variable.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hover over the element with id ‘row3’ using Action class.</t>
+  </si>
+  <si>
+    <t>Test the background color the td with id ‘row3’ after hovering.</t>
+  </si>
+  <si>
+    <t>The color code "#b2a0e8" should be present.</t>
+  </si>
+  <si>
+    <r>
+      <t>Create a static variable named as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>row3After</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>(String) and store the value into the variable.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hover over the element with id ‘row4’ using Action class.</t>
+  </si>
+  <si>
+    <t>Test the background color the td with id ‘row4’ after hovering.</t>
+  </si>
+  <si>
+    <t>The color code "#d8a0e8" should be present.</t>
+  </si>
+  <si>
+    <r>
+      <t>Create a static variable named as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>row4After</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>(String) and store the value into the variable.</t>
+    </r>
+  </si>
+  <si>
+    <t>Quit the Firefox driver</t>
+  </si>
+  <si>
+    <t>Application is closed</t>
+  </si>
+  <si>
+    <t>Note :</t>
+  </si>
+  <si>
+    <r>
+      <t>The selenium test script file name should be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>WebTest.java.</t>
+    </r>
+  </si>
+  <si>
+    <t>The static variable names are given in the template code file and do not change.[WebTest.java]</t>
+  </si>
+  <si>
+    <r>
+      <t>Use the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>” to access the elements with &lt;td&gt; tag. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>Color.fromString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t> method can be used to get the color code.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>For eg:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t xml:space="preserve"> driver.findElement(By.id("row1"));</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +898,40 @@
       <color theme="1"/>
       <name val="Var(--page-font)"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Var(--secondary-font)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Var(--page-font)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Var(--page-font)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--page-font)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -497,7 +941,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -520,11 +964,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -547,8 +1018,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,6 +1070,316 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>556260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECA680F-9EB3-C390-8F5B-693175AD9240}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21175980"/>
+          <a:ext cx="7703820" cy="3208020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5FDC54-F1FA-A9AA-7C02-47E5DD3ADB96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22318980"/>
+          <a:ext cx="7475220" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE00AB2-DEF3-834A-E94F-1910925C3B31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23461980"/>
+          <a:ext cx="7040880" cy="3604260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57EA80FE-337A-B271-7F8C-B31E9D8307BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24604980"/>
+          <a:ext cx="8115300" cy="3230880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1432560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3F1E61-5BFA-FFBB-0C96-9C1ABB364D78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25747980"/>
+          <a:ext cx="8145780" cy="3322320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -829,13 +1647,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="62.4">
+    <row r="1" spans="1:2" ht="60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,13 +2112,522 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1926E4B3-D26C-42BC-A0FD-180CBAC29F07}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C86"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="45.6">
+      <c r="A1" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="7"/>
+    </row>
+    <row r="4" spans="1:1" ht="31.2">
+      <c r="A4" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="31.2">
+      <c r="A5" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:1" ht="158.4">
+      <c r="A7" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" spans="1:1" ht="62.4">
+      <c r="A9" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:1" ht="409.6">
+      <c r="A11" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="13" spans="1:1" ht="369.6">
+      <c r="A13" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="7"/>
+    </row>
+    <row r="15" spans="1:1" ht="382.8">
+      <c r="A15" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="7"/>
+    </row>
+    <row r="17" spans="1:1" ht="46.8">
+      <c r="A17" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:1" ht="46.8">
+      <c r="A21" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="11"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="11"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="7"/>
+    </row>
+    <row r="25" spans="1:1" ht="46.8">
+      <c r="A25" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:1" ht="46.8">
+      <c r="A29" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:1" ht="46.8">
+      <c r="A33" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:1" ht="105.6">
+      <c r="A37" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:1" ht="115.2">
+      <c r="A39" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:1" ht="79.2">
+      <c r="A41" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:1" ht="28.8">
+      <c r="A43" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:1" ht="93.6">
+      <c r="A45" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:1" ht="52.8">
+      <c r="A47" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="132">
+      <c r="A48" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="39.6">
+      <c r="A49" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="198">
+      <c r="A50" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="79.2">
+      <c r="A51" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="105.6">
+      <c r="A52" s="17"/>
+      <c r="B52" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="66">
+      <c r="A53" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="7"/>
+    </row>
+    <row r="55" spans="1:3" ht="31.2">
+      <c r="A55" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="52.8">
+      <c r="A56" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="105.6">
+      <c r="A57" s="13">
+        <v>1</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="79.2">
+      <c r="A58" s="13">
+        <v>2</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="145.19999999999999">
+      <c r="A59" s="13">
+        <v>3</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="18"/>
+    </row>
+    <row r="60" spans="1:3" ht="79.2">
+      <c r="A60" s="13">
+        <v>4</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="145.19999999999999">
+      <c r="A61" s="13">
+        <v>5</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="18"/>
+    </row>
+    <row r="62" spans="1:3" ht="79.2">
+      <c r="A62" s="13">
+        <v>6</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="145.19999999999999">
+      <c r="A63" s="13">
+        <v>7</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="18"/>
+    </row>
+    <row r="64" spans="1:3" ht="79.2">
+      <c r="A64" s="13">
+        <v>8</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="145.19999999999999">
+      <c r="A65" s="13">
+        <v>9</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="18"/>
+    </row>
+    <row r="66" spans="1:3" ht="105.6">
+      <c r="A66" s="16">
+        <v>10</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="105.6">
+      <c r="A67" s="17"/>
+      <c r="B67" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="17"/>
+    </row>
+    <row r="68" spans="1:3" ht="145.19999999999999">
+      <c r="A68" s="13">
+        <v>11</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="18"/>
+    </row>
+    <row r="69" spans="1:3" ht="105.6">
+      <c r="A69" s="16">
+        <v>12</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="105.6">
+      <c r="A70" s="17"/>
+      <c r="B70" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="17"/>
+    </row>
+    <row r="71" spans="1:3" ht="145.19999999999999">
+      <c r="A71" s="13">
+        <v>13</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="18"/>
+    </row>
+    <row r="72" spans="1:3" ht="105.6">
+      <c r="A72" s="16">
+        <v>14</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="105.6">
+      <c r="A73" s="17"/>
+      <c r="B73" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="17"/>
+    </row>
+    <row r="74" spans="1:3" ht="145.19999999999999">
+      <c r="A74" s="13">
+        <v>15</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="18"/>
+    </row>
+    <row r="75" spans="1:3" ht="105.6">
+      <c r="A75" s="16">
+        <v>16</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="105.6">
+      <c r="A76" s="17"/>
+      <c r="B76" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="17"/>
+    </row>
+    <row r="77" spans="1:3" ht="145.19999999999999">
+      <c r="A77" s="13">
+        <v>17</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="18"/>
+    </row>
+    <row r="78" spans="1:3" ht="25.2" customHeight="1">
+      <c r="A78" s="16">
+        <v>18</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="7"/>
+    </row>
+    <row r="81" spans="1:1" ht="15.6">
+      <c r="A81" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="7"/>
+    </row>
+    <row r="83" spans="1:1" ht="92.4">
+      <c r="A83" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="158.4">
+      <c r="A84" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="184.8">
+      <c r="A85" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C72:C73"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A39" r:id="rId1" xr:uid="{8A9C1983-E61E-452C-89D0-2DE879BDD9D2}"/>
+    <hyperlink ref="A43" r:id="rId2" display="https://app.e-box.co.in/uploads/File/SeleniumJars.zip" xr:uid="{3F286B23-D63E-49D6-BD32-3173198B8B94}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/1/prob.xlsx
+++ b/1/prob.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srini\OneDrive\Desktop\New folder\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E457A57-EAD4-4304-A683-66F69DDFE591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41911901-ABB6-47E0-8529-F0B314C212CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4248" yWindow="10332" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="6120" windowWidth="11712" windowHeight="6216" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="208">
   <si>
     <t>Hospital Management System</t>
   </si>
@@ -862,6 +862,582 @@
         <rFont val="Var(--page-font)"/>
       </rPr>
       <t xml:space="preserve"> driver.findElement(By.id("row1"));</t>
+    </r>
+  </si>
+  <si>
+    <t>POM - Calculator Testing</t>
+  </si>
+  <si>
+    <t>To test the concept of the Page Object Model.</t>
+  </si>
+  <si>
+    <t>Important Note :</t>
+  </si>
+  <si>
+    <t>Please start working on the template code provided in the below. Template code will provide the base template or format in which the end solution is expected from you. Template code is not an executable code and will help you add code on top of it to ensure you make your submissions in the right format. If the submission is NOT as per the template code format the submissions will not be accepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POM(Page Object Model): </t>
+  </si>
+  <si>
+    <t>Page Object Model is that if the UI changes for any page, it does not require us to change any tests, we just need to change only the code within the page objects</t>
+  </si>
+  <si>
+    <t>Page Factory Model:</t>
+  </si>
+  <si>
+    <t>The PageFactory Class in Selenium is an extension to the Page Object design pattern. It is used to initialize the elements of the Page Object or instantiate the Page Objects itself. Annotations for elements can also be created (and recommended) as the describing properties may not always be descriptive enough to tell one object from the other.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is used to initialize elements of a Page class without having to use ‘FindElement’ or ‘FindElements’. Annotations can be used to supply descriptive names of target objects to improve code readability. </t>
+  </si>
+  <si>
+    <t>Eg:</t>
+  </si>
+  <si>
+    <t> @FindBy(id = “userName”)</t>
+  </si>
+  <si>
+    <t> WebElement txt_UserName;</t>
+  </si>
+  <si>
+    <t>Jackie is working part-time in "Orgo Foods" which is a mini-grocery shop selling organic products such as grains, flours, pulses, etc., His job is to bill the total price for the customers. Unknowingly, he broke his calculator due to the furor of the crowd. Now, he is in need of a calculator to bill as the crowd is increasing hour by hour. Hence, create an Html page that would perform the functions of a Calculator. The script should contain the code for addition, subtraction, multiplication, and division.</t>
+  </si>
+  <si>
+    <t>The corresponding screenshots and the URL to locate the application is given below. Test the application and generate reports as per the testing specifications provided.</t>
+  </si>
+  <si>
+    <t>Sample Screenshot 2:</t>
+  </si>
+  <si>
+    <t>Please refer to the below link for a flow of the application</t>
+  </si>
+  <si>
+    <t>https://app.e-box.co.in/uploads/Calculator_new.html</t>
+  </si>
+  <si>
+    <r>
+      <t>Create a page object class named "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>InputPage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>" and include the following page factory method.</t>
+    </r>
+  </si>
+  <si>
+    <t>public InputPage(WebDriver driver)</t>
+  </si>
+  <si>
+    <t>This method is used to set the driver.</t>
+  </si>
+  <si>
+    <t>public void setValue1(String value1)</t>
+  </si>
+  <si>
+    <t>This method is used to set the value1 using driver.</t>
+  </si>
+  <si>
+    <t>public void setValue2(String value2)</t>
+  </si>
+  <si>
+    <t>This method is used to set the value2 using driver.</t>
+  </si>
+  <si>
+    <t>public void clickAdd()</t>
+  </si>
+  <si>
+    <t>This method is used to click the Add button using driver.</t>
+  </si>
+  <si>
+    <t>public void clickSub()</t>
+  </si>
+  <si>
+    <t>This method is used to click the Sub button using driver.</t>
+  </si>
+  <si>
+    <t>public void clickMul()</t>
+  </si>
+  <si>
+    <t>This method is used to click the Mul button using driver.</t>
+  </si>
+  <si>
+    <t>public void clickDiv()</t>
+  </si>
+  <si>
+    <t>This method is used to click the Div button using driver.</t>
+  </si>
+  <si>
+    <r>
+      <t>Create a page object class named "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>DisplayPage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>" and include the following page factory method.</t>
+    </r>
+  </si>
+  <si>
+    <t>public DisplayPage(WebDriver driver)</t>
+  </si>
+  <si>
+    <t>public String getH3tag()</t>
+  </si>
+  <si>
+    <t>This method is used to get h3 tag in the DisplayPage.</t>
+  </si>
+  <si>
+    <t>public String getResult()</t>
+  </si>
+  <si>
+    <t>This method is used to get the details displayed in the DisplayPage.</t>
+  </si>
+  <si>
+    <r>
+      <t>Create a class named "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>TestCalculate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>" and include the following method.</t>
+    </r>
+  </si>
+  <si>
+    <t>1.  Add the appropriate annotations for the testNG test case.</t>
+  </si>
+  <si>
+    <r>
+      <t>2.  Add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>@BeforeTest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t> annotation for the method launchDriver() for driver setup.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>@Test </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>annotation for following methods.</t>
+    </r>
+  </si>
+  <si>
+    <t>testAddition() – priority = 1</t>
+  </si>
+  <si>
+    <t>testSubtraction() – priority = 2</t>
+  </si>
+  <si>
+    <t>testMultiplication() – priority = 3</t>
+  </si>
+  <si>
+    <t>testDivision() – priority = 4</t>
+  </si>
+  <si>
+    <r>
+      <t>4. Set the parameter </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>priority(@Test(priority=??))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t> to run the methods in the above order. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. Add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>@AfterTest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t> annotation for the method quitDriver() for closing the driver.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Create </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>testng.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t> in which the test classes are to be configured.</t>
+    </r>
+  </si>
+  <si>
+    <t>Execute the testng.xml file using TestNG.</t>
+  </si>
+  <si>
+    <t>Test Scenario:</t>
+  </si>
+  <si>
+    <t>S.NO</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Launch the application</t>
+  </si>
+  <si>
+    <t>Test the h3 tag</t>
+  </si>
+  <si>
+    <r>
+      <t>The h3 tag text '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>Simple Calculator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>' should be present.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use the already available static variable '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>h3Element</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>' to store the h3 value.</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter the below inputs</t>
+  </si>
+  <si>
+    <t>value1 : 400</t>
+  </si>
+  <si>
+    <t>value2 : 10</t>
+  </si>
+  <si>
+    <t>Click the Add button.</t>
+  </si>
+  <si>
+    <t>The below success message should be displayed in the div with id 'result'.</t>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>Addition of 400 and 10 is 410</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use the already available static variable '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>result1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>' to store the message displayed inside the div.</t>
+    </r>
+  </si>
+  <si>
+    <t>value1 : 500</t>
+  </si>
+  <si>
+    <t>value2 : 55</t>
+  </si>
+  <si>
+    <t>Click the Sub button.</t>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>Subtraction of 500 and 55 is 445</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use the already available static variable '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>result2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>' to store the message displayed inside the div.</t>
+    </r>
+  </si>
+  <si>
+    <t>value1 : 15</t>
+  </si>
+  <si>
+    <t>value2 : 5</t>
+  </si>
+  <si>
+    <t>Click the Mul button.</t>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>Multiplication of 15 and 5 is 75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use the already available static variable '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>result3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>' to store the message displayed inside the div.</t>
+    </r>
+  </si>
+  <si>
+    <t>value1 : 555</t>
+  </si>
+  <si>
+    <t>Click the Div button.</t>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>Division of 555 and 5 is 111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use the already available static variable '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>result4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--page-font)"/>
+      </rPr>
+      <t>' to store the message displayed inside the div.</t>
     </r>
   </si>
 </sst>
@@ -869,7 +1445,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,16 +1508,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Var(--page-font)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Var(--page-font)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--page-font)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -990,12 +1600,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1042,17 +1663,95 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1382,6 +2081,133 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D29D7F-5BBC-2F44-DB6C-DD2025F04D32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21396960"/>
+          <a:ext cx="5791200" cy="3185160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>716280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F0F13EA-C45E-1B25-D4DD-9A4924EFD1B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22539960"/>
+          <a:ext cx="5410200" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2114,7 +2940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1926E4B3-D26C-42BC-A0FD-180CBAC29F07}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C86"/>
     </sheetView>
   </sheetViews>
@@ -2131,12 +2957,12 @@
     <row r="3" spans="1:1">
       <c r="A3" s="7"/>
     </row>
-    <row r="4" spans="1:1" ht="31.2">
+    <row r="4" spans="1:1" ht="30">
       <c r="A4" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31.2">
+    <row r="5" spans="1:1" ht="27.6">
       <c r="A5" s="10" t="s">
         <v>65</v>
       </c>
@@ -2152,7 +2978,7 @@
     <row r="8" spans="1:1">
       <c r="A8" s="7"/>
     </row>
-    <row r="9" spans="1:1" ht="62.4">
+    <row r="9" spans="1:1" ht="55.2">
       <c r="A9" s="10" t="s">
         <v>67</v>
       </c>
@@ -2184,7 +3010,7 @@
     <row r="16" spans="1:1">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" ht="46.8">
+    <row r="17" spans="1:1" ht="41.4">
       <c r="A17" s="10" t="s">
         <v>71</v>
       </c>
@@ -2198,7 +3024,7 @@
     <row r="20" spans="1:1">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" ht="46.8">
+    <row r="21" spans="1:1" ht="41.4">
       <c r="A21" s="10" t="s">
         <v>72</v>
       </c>
@@ -2212,7 +3038,7 @@
     <row r="24" spans="1:1">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" ht="46.8">
+    <row r="25" spans="1:1" ht="41.4">
       <c r="A25" s="10" t="s">
         <v>73</v>
       </c>
@@ -2226,7 +3052,7 @@
     <row r="28" spans="1:1">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" ht="46.8">
+    <row r="29" spans="1:1" ht="41.4">
       <c r="A29" s="10" t="s">
         <v>74</v>
       </c>
@@ -2240,7 +3066,7 @@
     <row r="32" spans="1:1">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" ht="46.8">
+    <row r="33" spans="1:1" ht="41.4">
       <c r="A33" s="10" t="s">
         <v>75</v>
       </c>
@@ -2286,7 +3112,7 @@
     <row r="44" spans="1:1">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" ht="93.6">
+    <row r="45" spans="1:1" ht="82.8">
       <c r="A45" s="10" t="s">
         <v>80</v>
       </c>
@@ -2321,7 +3147,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="79.2">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="18" t="s">
         <v>87</v>
       </c>
       <c r="B51" s="14" t="s">
@@ -2329,7 +3155,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="105.6">
-      <c r="A52" s="17"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="15" t="s">
         <v>89</v>
       </c>
@@ -2345,7 +3171,7 @@
     <row r="54" spans="1:3">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:3" ht="31.2">
+    <row r="55" spans="1:3" ht="27.6">
       <c r="A55" s="10" t="s">
         <v>92</v>
       </c>
@@ -2390,7 +3216,7 @@
       <c r="B59" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="18"/>
+      <c r="C59" s="16"/>
     </row>
     <row r="60" spans="1:3" ht="79.2">
       <c r="A60" s="13">
@@ -2410,7 +3236,7 @@
       <c r="B61" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="18"/>
+      <c r="C61" s="16"/>
     </row>
     <row r="62" spans="1:3" ht="79.2">
       <c r="A62" s="13">
@@ -2430,7 +3256,7 @@
       <c r="B63" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="18"/>
+      <c r="C63" s="16"/>
     </row>
     <row r="64" spans="1:3" ht="79.2">
       <c r="A64" s="13">
@@ -2450,25 +3276,25 @@
       <c r="B65" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="18"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" spans="1:3" ht="105.6">
-      <c r="A66" s="16">
+      <c r="A66" s="18">
         <v>10</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="105.6">
-      <c r="A67" s="17"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="17"/>
+      <c r="C67" s="19"/>
     </row>
     <row r="68" spans="1:3" ht="145.19999999999999">
       <c r="A68" s="13">
@@ -2477,25 +3303,25 @@
       <c r="B68" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="18"/>
+      <c r="C68" s="16"/>
     </row>
     <row r="69" spans="1:3" ht="105.6">
-      <c r="A69" s="16">
+      <c r="A69" s="18">
         <v>12</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="18" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="105.6">
-      <c r="A70" s="17"/>
+      <c r="A70" s="19"/>
       <c r="B70" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C70" s="17"/>
+      <c r="C70" s="19"/>
     </row>
     <row r="71" spans="1:3" ht="145.19999999999999">
       <c r="A71" s="13">
@@ -2504,25 +3330,25 @@
       <c r="B71" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C71" s="18"/>
+      <c r="C71" s="16"/>
     </row>
     <row r="72" spans="1:3" ht="105.6">
-      <c r="A72" s="16">
+      <c r="A72" s="18">
         <v>14</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="105.6">
-      <c r="A73" s="17"/>
+      <c r="A73" s="19"/>
       <c r="B73" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C73" s="17"/>
+      <c r="C73" s="19"/>
     </row>
     <row r="74" spans="1:3" ht="145.19999999999999">
       <c r="A74" s="13">
@@ -2531,25 +3357,25 @@
       <c r="B74" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C74" s="18"/>
+      <c r="C74" s="16"/>
     </row>
     <row r="75" spans="1:3" ht="105.6">
-      <c r="A75" s="16">
+      <c r="A75" s="18">
         <v>16</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="18" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="105.6">
-      <c r="A76" s="17"/>
+      <c r="A76" s="19"/>
       <c r="B76" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C76" s="17"/>
+      <c r="C76" s="19"/>
     </row>
     <row r="77" spans="1:3" ht="145.19999999999999">
       <c r="A77" s="13">
@@ -2558,28 +3384,28 @@
       <c r="B77" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C77" s="18"/>
+      <c r="C77" s="16"/>
     </row>
     <row r="78" spans="1:3" ht="25.2" customHeight="1">
-      <c r="A78" s="16">
+      <c r="A78" s="18">
         <v>18</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="18" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="7"/>
     </row>
-    <row r="81" spans="1:1" ht="15.6">
+    <row r="81" spans="1:1">
       <c r="A81" s="10" t="s">
         <v>125</v>
       </c>
@@ -2603,24 +3429,24 @@
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="17" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="C75:C76"/>
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="C72:C73"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A39" r:id="rId1" xr:uid="{8A9C1983-E61E-452C-89D0-2DE879BDD9D2}"/>
@@ -2633,12 +3459,625 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE54EBB-3F94-4FB8-AC30-BF62B47F06C0}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C103"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" ht="62.4">
+      <c r="A2" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="31.2">
+      <c r="A3" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="7"/>
+    </row>
+    <row r="5" spans="1:1" ht="92.4">
+      <c r="A5" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:1" ht="31.2">
+      <c r="A7" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" spans="1:1" ht="409.6">
+      <c r="A9" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.6">
+      <c r="A10" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.6">
+      <c r="A12" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="23"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.6">
+      <c r="A16" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="62.4">
+      <c r="A19" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:1" ht="409.6">
+      <c r="A21" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="28"/>
+    </row>
+    <row r="23" spans="1:1" ht="290.39999999999998">
+      <c r="A23" s="29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="28"/>
+    </row>
+    <row r="25" spans="1:1" ht="46.8">
+      <c r="A25" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="31"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="31"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="28"/>
+    </row>
+    <row r="29" spans="1:1" ht="46.8">
+      <c r="A29" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="31"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="31"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="28"/>
+    </row>
+    <row r="33" spans="1:2" ht="79.2">
+      <c r="A33" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="28"/>
+    </row>
+    <row r="35" spans="1:2" ht="28.8">
+      <c r="A35" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="28"/>
+    </row>
+    <row r="37" spans="1:2" ht="105.6">
+      <c r="A37" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="28"/>
+    </row>
+    <row r="39" spans="1:2" ht="100.8">
+      <c r="A39" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="28"/>
+    </row>
+    <row r="41" spans="1:2" ht="171.6">
+      <c r="A41" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="26.4">
+      <c r="A42" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="66">
+      <c r="A43" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="92.4">
+      <c r="A44" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="92.4">
+      <c r="A45" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="105.6">
+      <c r="A46" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="105.6">
+      <c r="A47" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="105.6">
+      <c r="A48" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="105.6">
+      <c r="A49" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="7"/>
+    </row>
+    <row r="51" spans="1:2" ht="184.8">
+      <c r="A51" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="26.4">
+      <c r="A52" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="66">
+      <c r="A53" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="92.4">
+      <c r="A54" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="118.8">
+      <c r="A55" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="7"/>
+    </row>
+    <row r="57" spans="1:2" ht="132">
+      <c r="A57" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="7"/>
+    </row>
+    <row r="59" spans="1:2" ht="105.6">
+      <c r="A59" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="132">
+      <c r="A60" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="79.2">
+      <c r="A61" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="52.8">
+      <c r="A62" s="35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="66">
+      <c r="A63" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="66">
+      <c r="A64" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="52.8">
+      <c r="A65" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="145.19999999999999">
+      <c r="A66" s="22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="132">
+      <c r="A67" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="132">
+      <c r="A68" s="35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="79.2">
+      <c r="A69" s="35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="46.8">
+      <c r="A70" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="62.4">
+      <c r="A71" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="52.8">
+      <c r="A72" s="34">
+        <v>1</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="92.4">
+      <c r="A73" s="34">
+        <v>2</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="118.8">
+      <c r="A74" s="34">
+        <v>3</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" s="37"/>
+    </row>
+    <row r="75" spans="1:3" ht="118.8">
+      <c r="A75" s="42">
+        <v>4</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="43"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="40"/>
+    </row>
+    <row r="77" spans="1:3" ht="52.8">
+      <c r="A77" s="43"/>
+      <c r="B77" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="26.4">
+      <c r="A78" s="43"/>
+      <c r="B78" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" s="40"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="43"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
+    </row>
+    <row r="80" spans="1:3" ht="39.6">
+      <c r="A80" s="44"/>
+      <c r="B80" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" s="41"/>
+    </row>
+    <row r="81" spans="1:3" ht="158.4">
+      <c r="A81" s="34">
+        <v>5</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="37"/>
+    </row>
+    <row r="82" spans="1:3" ht="118.8">
+      <c r="A82" s="42">
+        <v>6</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C82" s="38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="43"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="40"/>
+    </row>
+    <row r="84" spans="1:3" ht="52.8">
+      <c r="A84" s="43"/>
+      <c r="B84" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C84" s="40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="26.4">
+      <c r="A85" s="43"/>
+      <c r="B85" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C85" s="40"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="43"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+    </row>
+    <row r="87" spans="1:3" ht="39.6">
+      <c r="A87" s="44"/>
+      <c r="B87" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C87" s="41"/>
+    </row>
+    <row r="88" spans="1:3" ht="158.4">
+      <c r="A88" s="34">
+        <v>7</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" s="37"/>
+    </row>
+    <row r="89" spans="1:3" ht="118.8">
+      <c r="A89" s="42">
+        <v>8</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="43"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="40"/>
+    </row>
+    <row r="91" spans="1:3" ht="52.8">
+      <c r="A91" s="43"/>
+      <c r="B91" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91" s="40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="43"/>
+      <c r="B92" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" s="40"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="43"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="40"/>
+    </row>
+    <row r="94" spans="1:3" ht="39.6">
+      <c r="A94" s="44"/>
+      <c r="B94" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" s="41"/>
+    </row>
+    <row r="95" spans="1:3" ht="158.4">
+      <c r="A95" s="34">
+        <v>9</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="37"/>
+    </row>
+    <row r="96" spans="1:3" ht="118.8">
+      <c r="A96" s="42">
+        <v>10</v>
+      </c>
+      <c r="B96" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96" s="38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="43"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="40"/>
+    </row>
+    <row r="98" spans="1:3" ht="52.8">
+      <c r="A98" s="43"/>
+      <c r="B98" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" s="40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="43"/>
+      <c r="B99" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" s="40"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="43"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+    </row>
+    <row r="101" spans="1:3" ht="39.6">
+      <c r="A101" s="44"/>
+      <c r="B101" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101" s="41"/>
+    </row>
+    <row r="102" spans="1:3" ht="158.4">
+      <c r="A102" s="34">
+        <v>11</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" s="37"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="A96:A101"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A35" r:id="rId1" display="https://app.e-box.co.in/uploads/File/SeleniumJars.zip" xr:uid="{876360FA-8F29-451F-B495-2CB898BF0910}"/>
+    <hyperlink ref="A39" r:id="rId2" xr:uid="{4F332AB4-55C7-4BD2-879F-4C4883D75E75}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>